--- a/HomeWorks/prom_CS/HW03/03_V1-Календарно-ресурсные планы.xlsx
+++ b/HomeWorks/prom_CS/HW03/03_V1-Календарно-ресурсные планы.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Cybersecurity_HSE\HomeWorks\prom_CS\HW03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16272" windowHeight="5772"/>
   </bookViews>
   <sheets>
-    <sheet name="Диаграмма Гантта" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="РесурсныйПлан" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Бюджет" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Диаграмма Гантта" sheetId="1" r:id="rId1"/>
+    <sheet name="РесурсныйПлан" sheetId="2" r:id="rId2"/>
+    <sheet name="Бюджет" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="175">
   <si>
     <t>Задача</t>
   </si>
@@ -32,355 +38,355 @@
     <t>Ресурс</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 1
+    <t>Week 1_x000D_
 28.04–04.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 2
+    <t>Week 2_x000D_
 05.05–11.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 3
+    <t>Week 3_x000D_
 12.05–18.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 4
+    <t>Week 4_x000D_
 19.05–25.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 5
+    <t>Week 5_x000D_
 26.05–01.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 6
+    <t>Week 6_x000D_
 02.06–08.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 7
+    <t>Week 7_x000D_
 09.06–15.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 8
+    <t>Week 8_x000D_
 16.06–22.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 9
+    <t>Week 9_x000D_
 23.06–29.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 10
+    <t>Week 10_x000D_
 30.06–06.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 11
+    <t>Week 11_x000D_
 07.07–13.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 12
+    <t>Week 12_x000D_
 14.07–20.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 13
+    <t>Week 13_x000D_
 21.07–27.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 14
+    <t>Week 14_x000D_
 28.07–03.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 15
+    <t>Week 15_x000D_
 04.08–10.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 16
+    <t>Week 16_x000D_
 11.08–17.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 17
+    <t>Week 17_x000D_
 18.08–24.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 18
+    <t>Week 18_x000D_
 25.08–31.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 19
+    <t>Week 19_x000D_
 01.09–07.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 20
+    <t>Week 20_x000D_
 08.09–14.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 21
+    <t>Week 21_x000D_
 15.09–21.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 22
+    <t>Week 22_x000D_
 22.09–28.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 23
+    <t>Week 23_x000D_
 29.09–05.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 24
+    <t>Week 24_x000D_
 06.10–12.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 25
+    <t>Week 25_x000D_
 13.10–19.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 26
+    <t>Week 26_x000D_
 20.10–26.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 27
+    <t>Week 27_x000D_
 27.10–02.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 28
+    <t>Week 28_x000D_
 03.11–09.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 29
+    <t>Week 29_x000D_
 10.11–16.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 30
+    <t>Week 30_x000D_
 17.11–23.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 31
+    <t>Week 31_x000D_
 24.11–30.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 32
+    <t>Week 32_x000D_
 01.12–07.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 33
+    <t>Week 33_x000D_
 08.12–14.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 34
+    <t>Week 34_x000D_
 15.12–21.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 35
+    <t>Week 35_x000D_
 22.12–28.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 36
+    <t>Week 36_x000D_
 29.12–04.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 37
+    <t>Week 37_x000D_
 05.01–11.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 38
+    <t>Week 38_x000D_
 12.01–18.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 39
+    <t>Week 39_x000D_
 19.01–25.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 40
+    <t>Week 40_x000D_
 26.01–01.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 41
+    <t>Week 41_x000D_
 02.02–08.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 42
+    <t>Week 42_x000D_
 09.02–15.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 43
+    <t>Week 43_x000D_
 16.02–22.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 44
+    <t>Week 44_x000D_
 23.02–01.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 45
+    <t>Week 45_x000D_
 02.03–08.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 46
+    <t>Week 46_x000D_
 09.03–15.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 47
+    <t>Week 47_x000D_
 16.03–22.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 48
+    <t>Week 48_x000D_
 23.03–29.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 49
+    <t>Week 49_x000D_
 30.03–05.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 50
+    <t>Week 50_x000D_
 06.04–12.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 51
+    <t>Week 51_x000D_
 13.04–19.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 52
+    <t>Week 52_x000D_
 20.04–26.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 53
+    <t>Week 53_x000D_
 27.04–03.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 54
+    <t>Week 54_x000D_
 04.05–10.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 55
+    <t>Week 55_x000D_
 11.05–17.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 56
+    <t>Week 56_x000D_
 18.05–24.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 57
+    <t>Week 57_x000D_
 25.05–31.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 58
+    <t>Week 58_x000D_
 01.06–07.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 59
+    <t>Week 59_x000D_
 08.06–14.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 60
+    <t>Week 60_x000D_
 15.06–21.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 61
+    <t>Week 61_x000D_
 22.06–28.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 62
+    <t>Week 62_x000D_
 29.06–05.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 63
+    <t>Week 63_x000D_
 06.07–12.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 64
+    <t>Week 64_x000D_
 13.07–19.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 65
+    <t>Week 65_x000D_
 20.07–26.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 66
+    <t>Week 66_x000D_
 27.07–02.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 67
+    <t>Week 67_x000D_
 03.08–09.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 68
+    <t>Week 68_x000D_
 10.08–16.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 69
+    <t>Week 69_x000D_
 17.08–23.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 70
+    <t>Week 70_x000D_
 24.08–30.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 71
+    <t>Week 71_x000D_
 31.08–06.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 72
+    <t>Week 72_x000D_
 07.09–13.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 73
+    <t>Week 73_x000D_
 14.09–20.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 74
+    <t>Week 74_x000D_
 21.09–27.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 75
+    <t>Week 75_x000D_
 28.09–04.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 76
+    <t>Week 76_x000D_
 05.10–11.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 77
+    <t>Week 77_x000D_
 12.10–18.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 78
+    <t>Week 78_x000D_
 19.10–25.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Kick‑off встреча</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анализ заинтересованных сторон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определить требования проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработать план проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласовать план проекта с заказчиком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Утверждение предварительного бюджета</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласовать список событий с заказчиком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовиться к пилотному внедрению (выбрать предприятие, согласовать с заказчиком)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовиться к масштабированию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовить итоговый отчёт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передать проект заказчику</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Провести аудит текущих систем АСУ ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руководство прототипированием</t>
+    <t>Kick‑off встреча</t>
+  </si>
+  <si>
+    <t>Анализ заинтересованных сторон</t>
+  </si>
+  <si>
+    <t>Определить требования проекта</t>
+  </si>
+  <si>
+    <t>Разработать план проекта</t>
+  </si>
+  <si>
+    <t>Согласовать план проекта с заказчиком</t>
+  </si>
+  <si>
+    <t>Утверждение предварительного бюджета</t>
+  </si>
+  <si>
+    <t>Согласовать список событий с заказчиком</t>
+  </si>
+  <si>
+    <t>Подготовиться к пилотному внедрению (выбрать предприятие, согласовать с заказчиком)</t>
+  </si>
+  <si>
+    <t>Подготовиться к масштабированию</t>
+  </si>
+  <si>
+    <t>Подготовить итоговый отчёт</t>
+  </si>
+  <si>
+    <t>Передать проект заказчику</t>
+  </si>
+  <si>
+    <t>Провести аудит текущих систем АСУ ТП</t>
+  </si>
+  <si>
+    <t>Руководство прототипированием</t>
   </si>
   <si>
     <t>Интеграция SOC (пилот)</t>
@@ -389,76 +395,76 @@
     <t>Интеграция SOC (сайты 2‑4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Финальная валидация системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Собрать и нарисовать “карту” всех 16 АСУ ТП (топология + инвентарный перечень устройств на 4‑х площадках)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Снять технические ограничения Siemens и Schneider: опросить контроллеры, понять, какие события они умеют отдавать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласовать с SOC единый формат и канал логов (Syslog/CEF + VPN/OT‑DMZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сформировать черновик ТЗ на пилот: выбрать 1 предприятие, описать точки сбора, требования к лог‑коллектору</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сделать прототип лог‑адаптера и показать первые события в SOC (лабораторная среда)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовить список типов событий для сбора</t>
+    <t>Финальная валидация системы</t>
+  </si>
+  <si>
+    <t>Собрать и нарисовать “карту” всех 16 АСУ ТП (топология + инвентарный перечень устройств на 4‑х площадках)</t>
+  </si>
+  <si>
+    <t>Снять технические ограничения Siemens и Schneider: опросить контроллеры, понять, какие события они умеют отдавать</t>
+  </si>
+  <si>
+    <t>Согласовать с SOC единый формат и канал логов (Syslog/CEF + VPN/OT‑DMZ)</t>
+  </si>
+  <si>
+    <t>Сформировать черновик ТЗ на пилот: выбрать 1 предприятие, описать точки сбора, требования к лог‑коллектору</t>
+  </si>
+  <si>
+    <t>Сделать прототип лог‑адаптера и показать первые события в SOC (лабораторная среда)</t>
+  </si>
+  <si>
+    <t>Подготовить список типов событий для сбора</t>
   </si>
   <si>
     <t xml:space="preserve">Анализ результатов отчетов внешнего аудита систем АСУ ТП </t>
   </si>
   <si>
-    <t xml:space="preserve">Разработать прототип системы сбора данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Протестировать совместимость прототипа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить и настроить систему на пилотном предприятии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установка коллекторов (пилот)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Протестировать функциональность системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Устранить выявленные проблемы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обучить персонал пилотного предприятия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить и настроить систему на втором предприятии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить и настроить систему на третьем предприятии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить и настроить систему на четвёртом предприятии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обучить персонал на всех предприятиях</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка рабочих мест для прототипа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интеграция агентов (пилот)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полевые тесты (пилот)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установка коллекторов (сайт 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Финальная доработка логирования</t>
+    <t>Разработать прототип системы сбора данных</t>
+  </si>
+  <si>
+    <t>Протестировать совместимость прототипа</t>
+  </si>
+  <si>
+    <t>Установить и настроить систему на пилотном предприятии</t>
+  </si>
+  <si>
+    <t>Установка коллекторов (пилот)</t>
+  </si>
+  <si>
+    <t>Протестировать функциональность системы</t>
+  </si>
+  <si>
+    <t>Устранить выявленные проблемы</t>
+  </si>
+  <si>
+    <t>Обучить персонал пилотного предприятия</t>
+  </si>
+  <si>
+    <t>Установить и настроить систему на втором предприятии</t>
+  </si>
+  <si>
+    <t>Установить и настроить систему на третьем предприятии</t>
+  </si>
+  <si>
+    <t>Установить и настроить систему на четвёртом предприятии</t>
+  </si>
+  <si>
+    <t>Обучить персонал на всех предприятиях</t>
+  </si>
+  <si>
+    <t>Подготовка рабочих мест для прототипа</t>
+  </si>
+  <si>
+    <t>Интеграция агентов (пилот)</t>
+  </si>
+  <si>
+    <t>Полевые тесты (пилот)</t>
+  </si>
+  <si>
+    <t>Установка коллекторов (сайт 4)</t>
+  </si>
+  <si>
+    <t>Финальная доработка логирования</t>
   </si>
   <si>
     <t>Дополнить:</t>
@@ -467,43 +473,43 @@
     <t>Закупки</t>
   </si>
   <si>
-    <t xml:space="preserve">импортозамещение сетевого оборудования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внедрение СЗИ на конечных точках</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Управление доступом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита периметра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMZ зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Резервное копирование</t>
+    <t>импортозамещение сетевого оборудования</t>
+  </si>
+  <si>
+    <t>внедрение СЗИ на конечных точках</t>
+  </si>
+  <si>
+    <t>Управление доступом</t>
+  </si>
+  <si>
+    <t>Защита периметра</t>
+  </si>
+  <si>
+    <t>DMZ зона</t>
+  </si>
+  <si>
+    <t>Резервное копирование</t>
   </si>
   <si>
     <t>Роль</t>
   </si>
   <si>
-    <t xml:space="preserve">Ставка руб/дн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трудозатраты чел/дней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руководитель проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Главный инженер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архитектор проекта</t>
+    <t>Ставка руб/дн</t>
+  </si>
+  <si>
+    <t>Трудозатраты чел/дней</t>
+  </si>
+  <si>
+    <t>Всего руб.</t>
+  </si>
+  <si>
+    <t>Руководитель проекта</t>
+  </si>
+  <si>
+    <t>Главный инженер</t>
+  </si>
+  <si>
+    <t>Архитектор проекта</t>
   </si>
   <si>
     <t>Инженер</t>
@@ -521,49 +527,46 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t xml:space="preserve">Внутренний труд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма трудозатрат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аудит АСУ ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">За объект 200000 руб. Тестовый Аудит будет проводиться сторонней организацией</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лог‑коллекторы (HW+SW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">≈16 шт. + резерв (На каждый объект)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лицензии для SOC</t>
+    <t>Внутренний труд</t>
+  </si>
+  <si>
+    <t>Сумма трудозатрат</t>
+  </si>
+  <si>
+    <t>Аудит АСУ ТП</t>
+  </si>
+  <si>
+    <t>За объект 200000 руб. Тестовый Аудит будет проводиться сторонней организацией</t>
+  </si>
+  <si>
+    <t>≈16 шт. + резерв (На каждый объект)</t>
+  </si>
+  <si>
+    <t>Лицензии для SOC</t>
   </si>
   <si>
     <t>SIEM‑коннекторы</t>
   </si>
   <si>
-    <t xml:space="preserve">Обучение персонала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 чел. (по 2 человека на объект)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка ПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для датчиков и коллекторов + тестирование ПО white black box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Логистика и координация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Путевые, связь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Промежуточный итог</t>
+    <t>Обучение персонала</t>
+  </si>
+  <si>
+    <t>32 чел. (по 2 человека на объект)</t>
+  </si>
+  <si>
+    <t>Разработка ПО</t>
+  </si>
+  <si>
+    <t>Для датчиков и коллекторов + тестирование ПО white black box</t>
+  </si>
+  <si>
+    <t>Логистика и координация</t>
+  </si>
+  <si>
+    <t>Путевые, связь</t>
+  </si>
+  <si>
+    <t>Промежуточный итог</t>
   </si>
   <si>
     <t>—</t>
@@ -573,21 +576,69 @@
   </si>
   <si>
     <t>Непредвиденные</t>
+  </si>
+  <si>
+    <t>Лог‑коллекторы (HardWare+SoftWare)</t>
+  </si>
+  <si>
+    <t>Закупка СЗИ NGFW</t>
+  </si>
+  <si>
+    <t>Закупка СЗИ криптошлюы</t>
+  </si>
+  <si>
+    <t>Закупка СЗИ АВЗ</t>
+  </si>
+  <si>
+    <t>Закупка СЗИ EDR/MDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клатер NGFW USerGate + внедрение </t>
+  </si>
+  <si>
+    <t>Кластер криптошлюзы + внедрение</t>
+  </si>
+  <si>
+    <t>Лицензия от 4000 хостов</t>
+  </si>
+  <si>
+    <t>По 300 хостов на объект (16 объектов)</t>
+  </si>
+  <si>
+    <t>Организация DMZ</t>
+  </si>
+  <si>
+    <t>Работы подрядчика по архитектуре, организации DMZ зоны</t>
+  </si>
+  <si>
+    <t>Ситема резервного копирования</t>
+  </si>
+  <si>
+    <t>Система резервного копирования с проверкой бэкапов для 16 объектов</t>
+  </si>
+  <si>
+    <t>PAM система дял контроля удаленного доступа</t>
+  </si>
+  <si>
+    <t>PAM на 16 объектов</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -631,8 +682,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -668,11 +719,11 @@
   </fills>
   <borders count="12">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -687,52 +738,52 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -742,36 +793,36 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -786,213 +837,204 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="79">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="9" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="11" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="12" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,295 +1042,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1491,31 +1253,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:CE65"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="109.140625"/>
-    <col customWidth="1" min="2" max="2" width="16.140625"/>
-    <col customWidth="1" min="3" max="3" width="25.28515625"/>
-    <col customWidth="1" min="4" max="4" width="11.42578125"/>
-    <col customWidth="1" min="5" max="5" width="21.140625"/>
-    <col customWidth="1" min="6" max="83" width="12.7109375"/>
+    <col min="1" max="1" width="109.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="83" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5">
+    <row r="1" spans="1:83" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" ht="42" customHeight="1">
+    <row r="2" spans="1:83" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -1782,12 +1543,12 @@
       </c>
       <c r="E2" s="7" t="str">
         <f t="shared" ref="E2:E3" si="1">"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
@@ -1803,13 +1564,13 @@
       </c>
       <c r="E3" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Новиков В.С.
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>85</v>
       </c>
@@ -1823,8 +1584,8 @@
         <v>45803</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" ref="E4:E12" si="2">"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="F4" s="14"/>
@@ -1832,7 +1593,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" ht="30" customHeight="1">
+    <row r="5" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>86</v>
       </c>
@@ -1846,8 +1607,8 @@
         <v>45817</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="F5" s="14"/>
@@ -1855,7 +1616,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" ht="30" customHeight="1">
+    <row r="6" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>87</v>
       </c>
@@ -1869,8 +1630,8 @@
         <v>45839</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="F6" s="14"/>
@@ -1880,7 +1641,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>88</v>
       </c>
@@ -1895,16 +1656,14 @@
         <v>45852</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
@@ -1919,8 +1678,8 @@
         <v>45858</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="H8" s="16"/>
@@ -1930,7 +1689,7 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" ht="30" customHeight="1">
+    <row r="9" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
@@ -1944,8 +1703,8 @@
         <v>45971</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="H9" s="16"/>
@@ -1958,7 +1717,7 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" ht="30" customHeight="1">
+    <row r="10" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>91</v>
       </c>
@@ -1972,8 +1731,8 @@
         <v>46132</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="H10" s="16"/>
@@ -1982,7 +1741,6 @@
       <c r="O10" s="14"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="AC10"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
@@ -1991,7 +1749,7 @@
       <c r="BD10" s="15"/>
       <c r="BE10" s="15"/>
     </row>
-    <row r="11" ht="30" customHeight="1">
+    <row r="11" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>92</v>
       </c>
@@ -2006,8 +1764,8 @@
         <v>46264</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="BA11" s="17"/>
@@ -2015,7 +1773,7 @@
       <c r="BV11" s="15"/>
       <c r="BW11" s="15"/>
     </row>
-    <row r="12" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:83" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>93</v>
       </c>
@@ -2030,8 +1788,8 @@
         <v>46278</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f>"Новиков В.С."&amp;CHAR(10)&amp;"Руководитель проекта"</f>
-        <v xml:space="preserve">Новиков В.С.
+        <f t="shared" si="2"/>
+        <v>Новиков В.С.
 Руководитель проекта</v>
       </c>
       <c r="BX12" s="24"/>
@@ -2039,7 +1797,7 @@
       <c r="CD12" s="25"/>
       <c r="CE12" s="25"/>
     </row>
-    <row r="13" ht="30" customHeight="1">
+    <row r="13" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>94</v>
       </c>
@@ -2054,8 +1812,8 @@
         <v>45802</v>
       </c>
       <c r="E13" s="26" t="str">
-        <f t="shared" ref="E13:E15" si="2">"Орлов И.Н."&amp;CHAR(10)&amp;"Главный инженер"</f>
-        <v xml:space="preserve">Орлов И.Н.
+        <f t="shared" ref="E13:E15" si="3">"Орлов И.Н."&amp;CHAR(10)&amp;"Главный инженер"</f>
+        <v>Орлов И.Н.
 Главный инженер</v>
       </c>
       <c r="H13" s="27"/>
@@ -2064,7 +1822,7 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" ht="30" customHeight="1">
+    <row r="14" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>95</v>
       </c>
@@ -2079,8 +1837,8 @@
         <v>45939</v>
       </c>
       <c r="E14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Орлов И.Н.
+        <f t="shared" si="3"/>
+        <v>Орлов И.Н.
 Главный инженер</v>
       </c>
       <c r="Z14" s="28"/>
@@ -2088,7 +1846,7 @@
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>96</v>
       </c>
@@ -2103,8 +1861,8 @@
         <v>46041</v>
       </c>
       <c r="E15" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Орлов И.Н.
+        <f t="shared" si="3"/>
+        <v>Орлов И.Н.
 Главный инженер</v>
       </c>
       <c r="AL15" s="28"/>
@@ -2115,7 +1873,7 @@
       <c r="AQ15" s="28"/>
       <c r="AR15" s="28"/>
     </row>
-    <row r="16" ht="30" customHeight="1">
+    <row r="16" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>97</v>
       </c>
@@ -2131,7 +1889,7 @@
       </c>
       <c r="E16" s="26" t="str">
         <f>"Орлов И.Н."&amp;CHAR(10)&amp;"Главный инженер"</f>
-        <v xml:space="preserve">Орлов И.Н.
+        <v>Орлов И.Н.
 Главный инженер</v>
       </c>
       <c r="F16" s="29"/>
@@ -2207,7 +1965,7 @@
       <c r="BX16" s="28"/>
       <c r="BY16" s="28"/>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>98</v>
       </c>
@@ -2223,7 +1981,7 @@
       </c>
       <c r="E17" s="26" t="str">
         <f>"Орлов И.Н."&amp;CHAR(10)&amp;"Главный инженер"</f>
-        <v xml:space="preserve">Орлов И.Н.
+        <v>Орлов И.Н.
 Главный инженер</v>
       </c>
       <c r="BU17" s="11"/>
@@ -2232,7 +1990,7 @@
       <c r="BX17" s="11"/>
       <c r="BY17" s="11"/>
     </row>
-    <row r="18" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:82" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>93</v>
       </c>
@@ -2248,7 +2006,7 @@
       </c>
       <c r="E18" s="31" t="str">
         <f>"Орлов И.Н."&amp;CHAR(10)&amp;"Главный инженер"</f>
-        <v xml:space="preserve">Орлов И.Н.
+        <v>Орлов И.Н.
 Главный инженер</v>
       </c>
       <c r="BX18" s="32"/>
@@ -2259,7 +2017,7 @@
       <c r="CC18" s="33"/>
       <c r="CD18" s="34"/>
     </row>
-    <row r="19" ht="30" customHeight="1">
+    <row r="19" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>99</v>
       </c>
@@ -2270,12 +2028,12 @@
         <v>21</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" ref="D19:D54" si="3">B19+C19-1</f>
+        <f t="shared" ref="D19:D54" si="4">B19+C19-1</f>
         <v>45825</v>
       </c>
       <c r="E19" s="35" t="str">
-        <f t="shared" ref="E19:E23" si="4">"Садриев Б.А."&amp;CHAR(10)&amp;"Архитектор проекта"</f>
-        <v xml:space="preserve">Садриев Б.А.
+        <f t="shared" ref="E19:E23" si="5">"Садриев Б.А."&amp;CHAR(10)&amp;"Архитектор проекта"</f>
+        <v>Садриев Б.А.
 Архитектор проекта</v>
       </c>
       <c r="I19" s="36"/>
@@ -2286,7 +2044,7 @@
       <c r="N19" s="36"/>
       <c r="O19" s="38"/>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>100</v>
       </c>
@@ -2297,12 +2055,12 @@
         <v>25</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45881</v>
       </c>
       <c r="E20" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Садриев Б.А.
+        <f t="shared" si="5"/>
+        <v>Садриев Б.А.
 Архитектор проекта</v>
       </c>
       <c r="Q20" s="39"/>
@@ -2315,7 +2073,7 @@
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
     </row>
-    <row r="21" ht="30" customHeight="1">
+    <row r="21" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>101</v>
       </c>
@@ -2326,12 +2084,12 @@
         <v>25</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45939</v>
       </c>
       <c r="E21" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Садриев Б.А.
+        <f t="shared" si="5"/>
+        <v>Садриев Б.А.
 Архитектор проекта</v>
       </c>
       <c r="Z21" s="37"/>
@@ -2339,7 +2097,7 @@
       <c r="AB21" s="37"/>
       <c r="AC21" s="39"/>
     </row>
-    <row r="22" ht="30" customHeight="1">
+    <row r="22" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>102</v>
       </c>
@@ -2350,12 +2108,12 @@
         <v>29</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46025</v>
       </c>
       <c r="E22" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Садриев Б.А.
+        <f t="shared" si="5"/>
+        <v>Садриев Б.А.
 Архитектор проекта</v>
       </c>
       <c r="AK22" s="39"/>
@@ -2369,7 +2127,7 @@
       <c r="BA22" s="36"/>
       <c r="BB22" s="36"/>
     </row>
-    <row r="23" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:82" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>103</v>
       </c>
@@ -2380,12 +2138,12 @@
         <v>25</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46113</v>
       </c>
       <c r="E23" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Садриев Б.А.
+        <f t="shared" si="5"/>
+        <v>Садриев Б.А.
 Архитектор проекта</v>
       </c>
       <c r="AX23" s="42"/>
@@ -2398,7 +2156,7 @@
       <c r="BZ23" s="36"/>
       <c r="CA23" s="36"/>
     </row>
-    <row r="24" ht="30" customHeight="1">
+    <row r="24" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>104</v>
       </c>
@@ -2412,8 +2170,8 @@
         <v>45844</v>
       </c>
       <c r="E24" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" ref="E24:E36" si="6">"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="N24" s="44"/>
@@ -2423,7 +2181,7 @@
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
     </row>
-    <row r="25" ht="30" customHeight="1">
+    <row r="25" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>105</v>
       </c>
@@ -2437,8 +2195,8 @@
         <v>45887</v>
       </c>
       <c r="E25" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="N25" s="16"/>
@@ -2450,7 +2208,7 @@
       <c r="V25" s="45"/>
       <c r="W25" s="45"/>
     </row>
-    <row r="26" ht="30" customHeight="1">
+    <row r="26" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>106</v>
       </c>
@@ -2464,8 +2222,8 @@
         <v>45914</v>
       </c>
       <c r="E26" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="N26" s="16"/>
@@ -2479,7 +2237,7 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="44"/>
     </row>
-    <row r="27" ht="30" customHeight="1">
+    <row r="27" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>107</v>
       </c>
@@ -2493,8 +2251,8 @@
         <v>45942</v>
       </c>
       <c r="E27" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="N27" s="16"/>
@@ -2512,7 +2270,7 @@
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
     </row>
-    <row r="28" ht="30" customHeight="1">
+    <row r="28" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -2526,8 +2284,8 @@
         <v>45998</v>
       </c>
       <c r="E28" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="N28" s="16"/>
@@ -2544,14 +2302,12 @@
       <c r="AA28" s="16"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="16"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
       <c r="AK28" s="44"/>
     </row>
-    <row r="29" ht="30" customHeight="1">
+    <row r="29" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>109</v>
       </c>
@@ -2562,18 +2318,14 @@
         <v>28</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46025</v>
       </c>
       <c r="E29" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
       <c r="AJ29" s="11"/>
       <c r="AK29" s="11"/>
       <c r="AL29" s="47"/>
@@ -2581,7 +2333,7 @@
       <c r="AN29" s="44"/>
       <c r="AO29" s="44"/>
     </row>
-    <row r="30" ht="30" customHeight="1">
+    <row r="30" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>110</v>
       </c>
@@ -2595,8 +2347,8 @@
         <v>45689</v>
       </c>
       <c r="E30" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="T30" s="16"/>
@@ -2607,13 +2359,12 @@
       <c r="AK30" s="45"/>
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
-      <c r="AN30"/>
       <c r="AP30" s="44"/>
       <c r="AQ30" s="44"/>
       <c r="AR30" s="44"/>
       <c r="AS30" s="44"/>
     </row>
-    <row r="31" ht="30" customHeight="1">
+    <row r="31" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>111</v>
       </c>
@@ -2624,12 +2375,12 @@
         <v>28</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45717</v>
       </c>
       <c r="E31" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="AQ31" s="11"/>
@@ -2640,7 +2391,7 @@
       <c r="AV31" s="44"/>
       <c r="AW31" s="44"/>
     </row>
-    <row r="32" ht="30" customHeight="1">
+    <row r="32" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>112</v>
       </c>
@@ -2651,12 +2402,12 @@
         <v>28</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45745</v>
       </c>
       <c r="E32" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="AT32" s="11"/>
@@ -2668,7 +2419,7 @@
       <c r="AZ32" s="47"/>
       <c r="BA32" s="44"/>
     </row>
-    <row r="33" ht="30" customHeight="1">
+    <row r="33" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>113</v>
       </c>
@@ -2683,8 +2434,8 @@
         <v>45801</v>
       </c>
       <c r="E33" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="AT33" s="45"/>
@@ -2700,7 +2451,7 @@
       <c r="BH33" s="44"/>
       <c r="BI33" s="44"/>
     </row>
-    <row r="34" ht="30" customHeight="1">
+    <row r="34" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>114</v>
       </c>
@@ -2715,8 +2466,8 @@
         <v>45829</v>
       </c>
       <c r="E34" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="AT34" s="45"/>
@@ -2732,7 +2483,7 @@
       <c r="BL34" s="44"/>
       <c r="BM34" s="44"/>
     </row>
-    <row r="35" ht="30" customHeight="1">
+    <row r="35" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>115</v>
       </c>
@@ -2747,8 +2498,8 @@
         <v>45857</v>
       </c>
       <c r="E35" s="43" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="AT35" s="45"/>
@@ -2764,7 +2515,7 @@
       <c r="BP35" s="44"/>
       <c r="BQ35" s="44"/>
     </row>
-    <row r="36" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:73" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>116</v>
       </c>
@@ -2779,8 +2530,8 @@
         <v>45885</v>
       </c>
       <c r="E36" s="50" t="str">
-        <f>"Белов С.В."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Белов С.В.
+        <f t="shared" si="6"/>
+        <v>Белов С.В.
 Инженер</v>
       </c>
       <c r="AT36" s="33"/>
@@ -2790,13 +2541,12 @@
       <c r="AX36" s="33"/>
       <c r="AY36" s="33"/>
       <c r="AZ36" s="33"/>
-      <c r="BA36" s="34"/>
       <c r="BR36" s="51"/>
       <c r="BS36" s="51"/>
       <c r="BT36" s="51"/>
       <c r="BU36" s="51"/>
     </row>
-    <row r="37" ht="30" customHeight="1">
+    <row r="37" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>104</v>
       </c>
@@ -2810,8 +2560,8 @@
         <v>45844</v>
       </c>
       <c r="E37" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" ref="E37:E49" si="7">"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F37" s="53"/>
@@ -2883,7 +2633,7 @@
       <c r="BT37" s="29"/>
       <c r="BU37" s="29"/>
     </row>
-    <row r="38" ht="30" customHeight="1">
+    <row r="38" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>105</v>
       </c>
@@ -2897,8 +2647,8 @@
         <v>45887</v>
       </c>
       <c r="E38" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F38" s="53"/>
@@ -2909,8 +2659,6 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38"/>
-      <c r="O38"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="54"/>
@@ -2970,7 +2718,7 @@
       <c r="BT38" s="29"/>
       <c r="BU38" s="29"/>
     </row>
-    <row r="39" ht="30" customHeight="1">
+    <row r="39" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>106</v>
       </c>
@@ -2984,8 +2732,8 @@
         <v>45914</v>
       </c>
       <c r="E39" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F39" s="53"/>
@@ -2996,12 +2744,8 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39"/>
-      <c r="O39"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
-      <c r="R39"/>
-      <c r="S39"/>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
       <c r="V39" s="56"/>
@@ -3057,7 +2801,7 @@
       <c r="BT39" s="29"/>
       <c r="BU39" s="29"/>
     </row>
-    <row r="40" ht="30" customHeight="1">
+    <row r="40" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>107</v>
       </c>
@@ -3071,8 +2815,8 @@
         <v>45942</v>
       </c>
       <c r="E40" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F40" s="53"/>
@@ -3083,12 +2827,8 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40"/>
-      <c r="O40"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
-      <c r="R40"/>
-      <c r="S40"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="45"/>
@@ -3144,7 +2884,7 @@
       <c r="BT40" s="29"/>
       <c r="BU40" s="29"/>
     </row>
-    <row r="41" ht="30" customHeight="1">
+    <row r="41" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>108</v>
       </c>
@@ -3158,8 +2898,8 @@
         <v>45998</v>
       </c>
       <c r="E41" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F41" s="53"/>
@@ -3170,22 +2910,14 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41"/>
-      <c r="O41"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
-      <c r="R41"/>
-      <c r="S41"/>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="45"/>
       <c r="W41" s="45"/>
       <c r="X41" s="58"/>
       <c r="Y41" s="58"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
       <c r="AD41" s="29"/>
       <c r="AE41" s="29"/>
       <c r="AF41" s="29"/>
@@ -3231,7 +2963,7 @@
       <c r="BT41" s="29"/>
       <c r="BU41" s="29"/>
     </row>
-    <row r="42" ht="30" customHeight="1">
+    <row r="42" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="59" t="s">
         <v>109</v>
       </c>
@@ -3246,8 +2978,8 @@
         <v>46025</v>
       </c>
       <c r="E42" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F42" s="60"/>
@@ -3319,7 +3051,7 @@
       <c r="BT42" s="61"/>
       <c r="BU42" s="61"/>
     </row>
-    <row r="43" ht="30" customHeight="1">
+    <row r="43" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>110</v>
       </c>
@@ -3333,8 +3065,8 @@
         <v>45689</v>
       </c>
       <c r="E43" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F43" s="53"/>
@@ -3351,8 +3083,6 @@
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
-      <c r="T43"/>
-      <c r="U43"/>
       <c r="V43" s="58"/>
       <c r="W43" s="58"/>
       <c r="X43" s="30"/>
@@ -3406,7 +3136,7 @@
       <c r="BT43" s="29"/>
       <c r="BU43" s="29"/>
     </row>
-    <row r="44" ht="30" customHeight="1">
+    <row r="44" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>111</v>
       </c>
@@ -3417,12 +3147,12 @@
         <v>28</v>
       </c>
       <c r="D44" s="10">
-        <f>B44+C44-1</f>
+        <f t="shared" ref="D44:D49" si="8">B44+C44-1</f>
         <v>45717</v>
       </c>
       <c r="E44" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F44" s="53"/>
@@ -3494,7 +3224,7 @@
       <c r="BT44" s="29"/>
       <c r="BU44" s="29"/>
     </row>
-    <row r="45" ht="30" customHeight="1">
+    <row r="45" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>112</v>
       </c>
@@ -3505,12 +3235,12 @@
         <v>28</v>
       </c>
       <c r="D45" s="10">
-        <f>B45+C45-1</f>
+        <f t="shared" si="8"/>
         <v>45745</v>
       </c>
       <c r="E45" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F45" s="53"/>
@@ -3582,7 +3312,7 @@
       <c r="BT45" s="29"/>
       <c r="BU45" s="29"/>
     </row>
-    <row r="46" ht="30" customHeight="1">
+    <row r="46" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>113</v>
       </c>
@@ -3593,12 +3323,12 @@
         <v>28</v>
       </c>
       <c r="D46" s="10">
-        <f>B46+C46-1</f>
+        <f t="shared" si="8"/>
         <v>45801</v>
       </c>
       <c r="E46" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F46" s="53"/>
@@ -3648,7 +3378,6 @@
       <c r="AX46" s="11"/>
       <c r="AY46" s="11"/>
       <c r="AZ46" s="11"/>
-      <c r="BA46"/>
       <c r="BB46" s="29"/>
       <c r="BC46" s="29"/>
       <c r="BD46" s="29"/>
@@ -3670,7 +3399,7 @@
       <c r="BT46" s="29"/>
       <c r="BU46" s="29"/>
     </row>
-    <row r="47" ht="30" customHeight="1">
+    <row r="47" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>114</v>
       </c>
@@ -3681,12 +3410,12 @@
         <v>28</v>
       </c>
       <c r="D47" s="10">
-        <f>B47+C47-1</f>
+        <f t="shared" si="8"/>
         <v>45829</v>
       </c>
       <c r="E47" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F47" s="53"/>
@@ -3736,7 +3465,6 @@
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BA47"/>
       <c r="BB47" s="29"/>
       <c r="BC47" s="29"/>
       <c r="BD47" s="29"/>
@@ -3758,7 +3486,7 @@
       <c r="BT47" s="29"/>
       <c r="BU47" s="29"/>
     </row>
-    <row r="48" ht="30" customHeight="1">
+    <row r="48" spans="1:73" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>115</v>
       </c>
@@ -3769,12 +3497,12 @@
         <v>28</v>
       </c>
       <c r="D48" s="10">
-        <f>B48+C48-1</f>
+        <f t="shared" si="8"/>
         <v>45857</v>
       </c>
       <c r="E48" s="52" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F48" s="53"/>
@@ -3824,7 +3552,6 @@
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BA48"/>
       <c r="BB48" s="29"/>
       <c r="BC48" s="29"/>
       <c r="BD48" s="29"/>
@@ -3846,7 +3573,7 @@
       <c r="BT48" s="29"/>
       <c r="BU48" s="29"/>
     </row>
-    <row r="49" s="34" customFormat="1" ht="30" customHeight="1">
+    <row r="49" spans="1:79" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="66" t="s">
         <v>116</v>
       </c>
@@ -3857,12 +3584,12 @@
         <v>28</v>
       </c>
       <c r="D49" s="49">
-        <f>B49+C49-1</f>
+        <f t="shared" si="8"/>
         <v>45885</v>
       </c>
       <c r="E49" s="67" t="str">
-        <f>"Москвин В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Москвин В.Д.
+        <f t="shared" si="7"/>
+        <v>Москвин В.Д.
 Инженер</v>
       </c>
       <c r="F49" s="68"/>
@@ -3912,7 +3639,6 @@
       <c r="AX49" s="33"/>
       <c r="AY49" s="33"/>
       <c r="AZ49" s="33"/>
-      <c r="BA49" s="34"/>
       <c r="BB49" s="68"/>
       <c r="BC49" s="68"/>
       <c r="BD49" s="68"/>
@@ -3934,7 +3660,7 @@
       <c r="BT49" s="70"/>
       <c r="BU49" s="71"/>
     </row>
-    <row r="50" ht="30" customHeight="1">
+    <row r="50" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>117</v>
       </c>
@@ -3945,19 +3671,19 @@
         <v>10</v>
       </c>
       <c r="D50" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45924</v>
       </c>
       <c r="E50" s="72" t="str">
-        <f t="shared" ref="E50:E54" si="5">"Фролов В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
-        <v xml:space="preserve">Фролов В.Д.
+        <f t="shared" ref="E50:E54" si="9">"Фролов В.Д."&amp;CHAR(10)&amp;"Инженер"</f>
+        <v>Фролов В.Д.
 Инженер</v>
       </c>
       <c r="Y50" s="73"/>
       <c r="Z50" s="73"/>
       <c r="AA50" s="73"/>
     </row>
-    <row r="51" ht="30" customHeight="1">
+    <row r="51" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>118</v>
       </c>
@@ -3968,12 +3694,12 @@
         <v>20</v>
       </c>
       <c r="D51" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46012</v>
       </c>
       <c r="E51" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Фролов В.Д.
+        <f t="shared" si="9"/>
+        <v>Фролов В.Д.
 Инженер</v>
       </c>
       <c r="AJ51" s="73"/>
@@ -3981,7 +3707,7 @@
       <c r="AL51" s="73"/>
       <c r="AM51" s="73"/>
     </row>
-    <row r="52" ht="30" customHeight="1">
+    <row r="52" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -3992,12 +3718,12 @@
         <v>30</v>
       </c>
       <c r="D52" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46097</v>
       </c>
       <c r="E52" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Фролов В.Д.
+        <f t="shared" si="9"/>
+        <v>Фролов В.Д.
 Инженер</v>
       </c>
       <c r="AT52" s="73"/>
@@ -4008,7 +3734,7 @@
       <c r="AY52" s="73"/>
       <c r="AZ52" s="73"/>
     </row>
-    <row r="53" ht="30" customHeight="1">
+    <row r="53" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>120</v>
       </c>
@@ -4019,12 +3745,12 @@
         <v>30</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46252</v>
       </c>
       <c r="E53" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Фролов В.Д.
+        <f t="shared" si="9"/>
+        <v>Фролов В.Д.
 Инженер</v>
       </c>
       <c r="BQ53" s="73"/>
@@ -4034,7 +3760,7 @@
       <c r="BU53" s="73"/>
       <c r="BV53" s="73"/>
     </row>
-    <row r="54" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="54" spans="1:79" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
         <v>121</v>
       </c>
@@ -4045,94 +3771,90 @@
         <v>8</v>
       </c>
       <c r="D54" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46287</v>
       </c>
       <c r="E54" s="74" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Фролов В.Д.
+        <f t="shared" si="9"/>
+        <v>Фролов В.Д.
 Инженер</v>
       </c>
       <c r="BY54" s="73"/>
       <c r="BZ54" s="73"/>
       <c r="CA54" s="73"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B55" s="75"/>
       <c r="D55" s="75"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B56" s="75"/>
       <c r="D56" s="75"/>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" ht="14.25">
+    <row r="60" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" ht="14.25">
+    <row r="61" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" ht="14.25">
+    <row r="64" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.42578125"/>
-    <col customWidth="1" min="2" max="2" width="22.85546875"/>
-    <col customWidth="1" min="3" max="3" width="27.7109375"/>
-    <col customWidth="1" min="4" max="4" width="18.5703125"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>130</v>
       </c>
@@ -4146,7 +3868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>134</v>
       </c>
@@ -4158,11 +3880,11 @@
         <v>125</v>
       </c>
       <c r="D2" s="76">
-        <f t="shared" ref="D2:D5" si="6">ROUND(B2*C2,0)</f>
+        <f t="shared" ref="D2:D5" si="0">ROUND(B2*C2,0)</f>
         <v>2250000</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
         <v>135</v>
       </c>
@@ -4174,11 +3896,11 @@
         <v>250</v>
       </c>
       <c r="D3" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>5250000</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="76" t="s">
         <v>136</v>
       </c>
@@ -4190,11 +3912,11 @@
         <v>125</v>
       </c>
       <c r="D4" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2625000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
         <v>137</v>
       </c>
@@ -4206,11 +3928,11 @@
         <v>681</v>
       </c>
       <c r="D5" s="76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4767000</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>138</v>
       </c>
@@ -4225,32 +3947,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.85546875"/>
-    <col customWidth="1" min="2" max="2" width="16"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="75.28125"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="75.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>139</v>
       </c>
@@ -4261,7 +3979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>142</v>
       </c>
@@ -4272,7 +3990,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
         <v>144</v>
       </c>
@@ -4284,142 +4002,240 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="76" t="s">
-        <v>146</v>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>159</v>
       </c>
       <c r="B4" s="76">
         <f>16*40000+200000</f>
         <v>840000</v>
       </c>
       <c r="C4" s="76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="76" t="s">
-        <v>148</v>
       </c>
       <c r="B5" s="76">
         <v>500000</v>
       </c>
       <c r="C5" s="76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="76" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="76" t="s">
-        <v>150</v>
       </c>
       <c r="B6" s="76">
         <v>800000</v>
       </c>
       <c r="C6" s="76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="76" t="s">
-        <v>152</v>
       </c>
       <c r="B7" s="76">
         <v>6000000</v>
       </c>
       <c r="C7" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="77">
+        <v>3000000</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="77">
+        <v>2000000</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="77">
+        <v>1200000</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="77">
+        <f>700000*16</f>
+        <v>11200000</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="77">
+        <f>700000*16</f>
+        <v>11200000</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="77">
+        <v>2000000</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="77">
+        <v>15000000</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="76" t="s">
+      <c r="B15" s="76">
+        <v>800000</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="76">
-        <v>800000</v>
-      </c>
-      <c r="C8" s="76" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="76" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="76" t="s">
+      <c r="B16" s="76">
+        <f>SUM(B2:B15)</f>
+        <v>70232000</v>
+      </c>
+      <c r="C16" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="76">
-        <f>SUM(B2:B8)</f>
-        <v>24632000</v>
-      </c>
-      <c r="C9" s="76" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="76" t="s">
+      <c r="B17" s="76">
+        <f>ROUND(B16*0.15,0)</f>
+        <v>10534800</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="76">
-        <f>ROUND(B9*0.15,0)</f>
-        <v>3694800</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="76" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="76">
-        <f>SUM(B9:B10)</f>
-        <v>28326800</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
+      <c r="B18" s="76">
+        <f>SUM(B16:B17)</f>
+        <v>80766800</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" t="s">
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" t="s">
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" t="s">
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" t="s">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" t="s">
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>129</v>
       </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>